--- a/RasPi/java/project/We_IT.xlsx
+++ b/RasPi/java/project/We_IT.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="15075" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="16665" windowHeight="2610"/>
   </bookViews>
   <sheets>
     <sheet name="수강생" sheetId="1" r:id="rId1"/>
     <sheet name="수강생출결" sheetId="2" r:id="rId2"/>
     <sheet name="강사" sheetId="3" r:id="rId3"/>
     <sheet name="강사출결" sheetId="4" r:id="rId4"/>
+    <sheet name="강사급여" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,12 +62,79 @@
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총급여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>Raspi</t>
+  </si>
+  <si>
+    <t>Keti</t>
+  </si>
+  <si>
+    <t>김지희</t>
+  </si>
+  <si>
+    <t>교육부</t>
+  </si>
+  <si>
+    <t>010-2387-0080</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>라즈베리파이</t>
+  </si>
+  <si>
+    <t>keti</t>
+  </si>
+  <si>
+    <t>010-2387-1181</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>KETI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="hh:mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,7 +166,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -121,18 +189,225 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,11 +717,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.375" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -473,32 +754,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="13.625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.75" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="10.875" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" width="10.25" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>42228.128757060185</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10">
+        <v>42228.128678680558</v>
+      </c>
+      <c r="F2" s="11">
+        <v>42228.128757060185</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -509,20 +822,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" customWidth="true" width="12.125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.25" collapsed="true"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -536,18 +853,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -559,10 +880,72 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>42228.128788055554</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15">
+        <v>42228.128704317132</v>
+      </c>
+      <c r="D2" s="16">
+        <v>42228.128788055554</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <f>SUMIF(강사출결!$B:$B, $A2, 강사출결!$E:$E)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>$B2*$C2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>